--- a/database/industries/folad/fakhouz/income/quarterly/rial.xlsx
+++ b/database/industries/folad/fakhouz/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A74BA0-3BC1-4BC6-AB0B-BD9B67B5689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9C1D45-F2A7-420E-861D-4ED785BAAF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فخوز-فولاد  خوزستان</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,34 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-05-11 (3)</t>
-  </si>
-  <si>
-    <t>1400-10-07 (5)</t>
-  </si>
-  <si>
-    <t>1400-10-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-04-16 (10)</t>
-  </si>
-  <si>
-    <t>1401-04-30 (3)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (5)</t>
-  </si>
-  <si>
-    <t>1400-10-30</t>
+    <t>1401-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29 (7)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
-    <t>1401-07-30 (2)</t>
+    <t>1401-10-14 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -612,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,14 +593,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -635,13 +606,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,13 +617,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -667,13 +628,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -681,13 +637,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -697,13 +648,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -713,13 +659,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -727,13 +668,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -753,59 +689,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -813,159 +719,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>48095160</v>
+        <v>128706715</v>
       </c>
       <c r="E11" s="13">
-        <v>64025242</v>
+        <v>171575537</v>
       </c>
       <c r="F11" s="13">
-        <v>96678141</v>
+        <v>127641205</v>
       </c>
       <c r="G11" s="13">
-        <v>97668485</v>
+        <v>110214098</v>
       </c>
       <c r="H11" s="13">
-        <v>109067824</v>
-      </c>
-      <c r="I11" s="13">
-        <v>92815989</v>
-      </c>
-      <c r="J11" s="13">
-        <v>128706716</v>
-      </c>
-      <c r="K11" s="13">
-        <v>171575537</v>
-      </c>
-      <c r="L11" s="13">
-        <v>127641205</v>
-      </c>
-      <c r="M11" s="13">
-        <v>110214098</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>129010944</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-33310565</v>
+        <v>-80873061</v>
       </c>
       <c r="E12" s="11">
-        <v>-39128192</v>
+        <v>-138742593</v>
       </c>
       <c r="F12" s="11">
-        <v>-54460020</v>
+        <v>-88568840</v>
       </c>
       <c r="G12" s="11">
-        <v>-56974255</v>
+        <v>-98941829</v>
       </c>
       <c r="H12" s="11">
-        <v>-59856233</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-58278229</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-80873061</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-138742593</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-88568840</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-99007595</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-114089932</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>14784595</v>
+        <v>47833654</v>
       </c>
       <c r="E13" s="15">
-        <v>24897050</v>
+        <v>32832944</v>
       </c>
       <c r="F13" s="15">
-        <v>42218121</v>
+        <v>39072365</v>
       </c>
       <c r="G13" s="15">
-        <v>40694230</v>
+        <v>11272269</v>
       </c>
       <c r="H13" s="15">
-        <v>49211591</v>
-      </c>
-      <c r="I13" s="15">
-        <v>34537760</v>
-      </c>
-      <c r="J13" s="15">
-        <v>47833655</v>
-      </c>
-      <c r="K13" s="15">
-        <v>32832944</v>
-      </c>
-      <c r="L13" s="15">
-        <v>39072365</v>
-      </c>
-      <c r="M13" s="15">
-        <v>11206503</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>14921012</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-2006191</v>
+        <v>-4994428</v>
       </c>
       <c r="E14" s="11">
-        <v>-2337473</v>
+        <v>-7166680</v>
       </c>
       <c r="F14" s="11">
-        <v>-3538478</v>
+        <v>-8887672</v>
       </c>
       <c r="G14" s="11">
-        <v>-4419076</v>
+        <v>-11347356</v>
       </c>
       <c r="H14" s="11">
-        <v>-4810389</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-4545421</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-4994428</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-7166680</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-8887672</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-6695788</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-2653355</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -983,277 +824,157 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>648775</v>
+        <v>-675042</v>
       </c>
       <c r="E16" s="11">
-        <v>2057010</v>
+        <v>-4175861</v>
       </c>
       <c r="F16" s="11">
-        <v>-284705</v>
+        <v>2578330</v>
       </c>
       <c r="G16" s="11">
-        <v>1057319</v>
+        <v>-1724942</v>
       </c>
       <c r="H16" s="11">
-        <v>-3021487</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-684442</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-675042</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-4175861</v>
-      </c>
-      <c r="L16" s="11">
-        <v>2578330</v>
-      </c>
-      <c r="M16" s="11">
-        <v>-1724942</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-5774785</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>13427179</v>
+        <v>42164184</v>
       </c>
       <c r="E17" s="15">
-        <v>24616587</v>
+        <v>21490403</v>
       </c>
       <c r="F17" s="15">
-        <v>38394938</v>
+        <v>32763023</v>
       </c>
       <c r="G17" s="15">
-        <v>37332473</v>
+        <v>-1800029</v>
       </c>
       <c r="H17" s="15">
-        <v>41379715</v>
-      </c>
-      <c r="I17" s="15">
-        <v>29307897</v>
-      </c>
-      <c r="J17" s="15">
-        <v>42164185</v>
-      </c>
-      <c r="K17" s="15">
-        <v>21490403</v>
-      </c>
-      <c r="L17" s="15">
-        <v>32763023</v>
-      </c>
-      <c r="M17" s="15">
-        <v>2785773</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6492872</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-469135</v>
+        <v>-908660</v>
       </c>
       <c r="E18" s="11">
-        <v>-594709</v>
+        <v>-1400622</v>
       </c>
       <c r="F18" s="11">
-        <v>-625680</v>
+        <v>-1761919</v>
       </c>
       <c r="G18" s="11">
-        <v>-1242005</v>
+        <v>486853</v>
       </c>
       <c r="H18" s="11">
-        <v>-889650</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-878025</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-908660</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-1400622</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-1761919</v>
-      </c>
-      <c r="M18" s="11">
-        <v>486853</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-698662</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>575851</v>
+        <v>1486021</v>
       </c>
       <c r="E19" s="13">
-        <v>1776430</v>
+        <v>1353285</v>
       </c>
       <c r="F19" s="13">
-        <v>234109</v>
+        <v>1855391</v>
       </c>
       <c r="G19" s="13">
-        <v>2219900</v>
+        <v>4545900</v>
       </c>
       <c r="H19" s="13">
-        <v>-885454</v>
-      </c>
-      <c r="I19" s="13">
-        <v>2261670</v>
-      </c>
-      <c r="J19" s="13">
-        <v>1486021</v>
-      </c>
-      <c r="K19" s="13">
-        <v>1353285</v>
-      </c>
-      <c r="L19" s="13">
-        <v>1855391</v>
-      </c>
-      <c r="M19" s="13">
-        <v>4545900</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3456027</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>13533895</v>
+        <v>42741545</v>
       </c>
       <c r="E20" s="17">
-        <v>25798308</v>
+        <v>21443066</v>
       </c>
       <c r="F20" s="17">
-        <v>38003367</v>
+        <v>32856495</v>
       </c>
       <c r="G20" s="17">
-        <v>38310368</v>
+        <v>3232724</v>
       </c>
       <c r="H20" s="17">
-        <v>39604611</v>
-      </c>
-      <c r="I20" s="17">
-        <v>30691542</v>
-      </c>
-      <c r="J20" s="17">
-        <v>42741546</v>
-      </c>
-      <c r="K20" s="17">
-        <v>21443066</v>
-      </c>
-      <c r="L20" s="17">
-        <v>32856495</v>
-      </c>
-      <c r="M20" s="17">
-        <v>7818526</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>9250237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-1228913</v>
+        <v>-3342381</v>
       </c>
       <c r="E21" s="13">
-        <v>-1845302</v>
+        <v>-1634413</v>
       </c>
       <c r="F21" s="13">
-        <v>-2120390</v>
+        <v>-2076382</v>
       </c>
       <c r="G21" s="13">
-        <v>1206349</v>
+        <v>-1261367</v>
       </c>
       <c r="H21" s="13">
-        <v>-1961999</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-2130111</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-3342381</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-1634413</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-2076382</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-1256347</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-3015817</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>12304982</v>
+        <v>39399164</v>
       </c>
       <c r="E22" s="17">
-        <v>23953006</v>
+        <v>19808653</v>
       </c>
       <c r="F22" s="17">
-        <v>35882977</v>
+        <v>30780113</v>
       </c>
       <c r="G22" s="17">
-        <v>39516717</v>
+        <v>1971357</v>
       </c>
       <c r="H22" s="17">
-        <v>37642612</v>
-      </c>
-      <c r="I22" s="17">
-        <v>28561431</v>
-      </c>
-      <c r="J22" s="17">
-        <v>39399165</v>
-      </c>
-      <c r="K22" s="17">
-        <v>19808653</v>
-      </c>
-      <c r="L22" s="17">
-        <v>30780113</v>
-      </c>
-      <c r="M22" s="17">
-        <v>6562179</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6234420</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1271,167 +992,92 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>12304982</v>
+        <v>39399164</v>
       </c>
       <c r="E24" s="17">
-        <v>23953006</v>
+        <v>19808653</v>
       </c>
       <c r="F24" s="17">
-        <v>35882977</v>
+        <v>30780113</v>
       </c>
       <c r="G24" s="17">
-        <v>39516717</v>
+        <v>1971357</v>
       </c>
       <c r="H24" s="17">
-        <v>37642612</v>
-      </c>
-      <c r="I24" s="17">
-        <v>28561431</v>
-      </c>
-      <c r="J24" s="17">
-        <v>39399165</v>
-      </c>
-      <c r="K24" s="17">
-        <v>19808653</v>
-      </c>
-      <c r="L24" s="17">
-        <v>30780113</v>
-      </c>
-      <c r="M24" s="17">
-        <v>6562179</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6234420</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="E25" s="13">
-        <v>479</v>
+        <v>165</v>
       </c>
       <c r="F25" s="13">
-        <v>718</v>
+        <v>257</v>
       </c>
       <c r="G25" s="13">
-        <v>329</v>
+        <v>10</v>
       </c>
       <c r="H25" s="13">
-        <v>314</v>
-      </c>
-      <c r="I25" s="13">
-        <v>150</v>
-      </c>
-      <c r="J25" s="13">
-        <v>328</v>
-      </c>
-      <c r="K25" s="13">
-        <v>104</v>
-      </c>
-      <c r="L25" s="13">
-        <v>257</v>
-      </c>
-      <c r="M25" s="13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>50000000</v>
+        <v>120000000</v>
       </c>
       <c r="E26" s="11">
-        <v>50000000</v>
+        <v>120000000</v>
       </c>
       <c r="F26" s="11">
-        <v>50000000</v>
+        <v>120000000</v>
       </c>
       <c r="G26" s="11">
-        <v>120000000</v>
+        <v>190000000</v>
       </c>
       <c r="H26" s="11">
-        <v>120000000</v>
-      </c>
-      <c r="I26" s="11">
         <v>190000000</v>
       </c>
-      <c r="J26" s="11">
-        <v>120000000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>190000000</v>
-      </c>
-      <c r="L26" s="11">
-        <v>120000000</v>
-      </c>
-      <c r="M26" s="11">
-        <v>190000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="E27" s="13">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F27" s="13">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="G27" s="13">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="H27" s="13">
-        <v>198</v>
-      </c>
-      <c r="I27" s="13">
-        <v>150</v>
-      </c>
-      <c r="J27" s="13">
-        <v>207</v>
-      </c>
-      <c r="K27" s="13">
-        <v>104</v>
-      </c>
-      <c r="L27" s="13">
-        <v>162</v>
-      </c>
-      <c r="M27" s="13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1439,11 +1085,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/fakhouz/income/quarterly/rial.xlsx
+++ b/database/industries/folad/fakhouz/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9C1D45-F2A7-420E-861D-4ED785BAAF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C283EBC0-11AB-4453-ABA3-51F1C1A580AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-10-07 (5)</t>
+  </si>
+  <si>
+    <t>1400-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-04-16 (10)</t>
+  </si>
+  <si>
+    <t>1401-04-30 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-14 (6)</t>
   </si>
   <si>
     <t>1401-10-29 (2)</t>
@@ -585,20 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>64025242</v>
+      </c>
+      <c r="E11" s="13">
+        <v>96678141</v>
+      </c>
+      <c r="F11" s="13">
+        <v>97668485</v>
+      </c>
+      <c r="G11" s="13">
+        <v>109067824</v>
+      </c>
+      <c r="H11" s="13">
+        <v>92815989</v>
+      </c>
+      <c r="I11" s="13">
         <v>128706715</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>171575537</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>127641205</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>110214098</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>129010944</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-39128192</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-54460020</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-56974255</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-59856233</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-58278229</v>
+      </c>
+      <c r="I12" s="11">
         <v>-80873061</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-138742593</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-88568840</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-98941829</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-114089932</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>24897050</v>
+      </c>
+      <c r="E13" s="15">
+        <v>42218121</v>
+      </c>
+      <c r="F13" s="15">
+        <v>40694230</v>
+      </c>
+      <c r="G13" s="15">
+        <v>49211591</v>
+      </c>
+      <c r="H13" s="15">
+        <v>34537760</v>
+      </c>
+      <c r="I13" s="15">
         <v>47833654</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>32832944</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>39072365</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>11272269</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>14921012</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-2337473</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-3538478</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-4419076</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-4810389</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-4545421</v>
+      </c>
+      <c r="I14" s="11">
         <v>-4994428</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-7166680</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-8887672</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-11347356</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-2653355</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +986,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>2057010</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-284705</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1057319</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-3021487</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-684442</v>
+      </c>
+      <c r="I16" s="11">
         <v>-675042</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-4175861</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>2578330</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>-1724942</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>-5774785</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>24616587</v>
+      </c>
+      <c r="E17" s="15">
+        <v>38394938</v>
+      </c>
+      <c r="F17" s="15">
+        <v>37332473</v>
+      </c>
+      <c r="G17" s="15">
+        <v>41379715</v>
+      </c>
+      <c r="H17" s="15">
+        <v>29307897</v>
+      </c>
+      <c r="I17" s="15">
         <v>42164184</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>21490403</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>32763023</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>-1800029</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>6492872</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-594709</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-625680</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-1242005</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-889650</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-878025</v>
+      </c>
+      <c r="I18" s="11">
         <v>-908660</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-1400622</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-1761919</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>486853</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-698662</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>1776430</v>
+      </c>
+      <c r="E19" s="13">
+        <v>234109</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2219900</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-885454</v>
+      </c>
+      <c r="H19" s="13">
+        <v>2261670</v>
+      </c>
+      <c r="I19" s="13">
         <v>1486021</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>1353285</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>1855391</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>4545900</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>3456027</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>25798308</v>
+      </c>
+      <c r="E20" s="17">
+        <v>38003367</v>
+      </c>
+      <c r="F20" s="17">
+        <v>38310368</v>
+      </c>
+      <c r="G20" s="17">
+        <v>39604611</v>
+      </c>
+      <c r="H20" s="17">
+        <v>30691542</v>
+      </c>
+      <c r="I20" s="17">
         <v>42741545</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>21443066</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>32856495</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>3232724</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>9250237</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-1845302</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-2120390</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1206349</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-1961999</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-2130111</v>
+      </c>
+      <c r="I21" s="13">
         <v>-3342381</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-1634413</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-2076382</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-1261367</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-3015817</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>23953006</v>
+      </c>
+      <c r="E22" s="17">
+        <v>35882977</v>
+      </c>
+      <c r="F22" s="17">
+        <v>39516717</v>
+      </c>
+      <c r="G22" s="17">
+        <v>37642612</v>
+      </c>
+      <c r="H22" s="17">
+        <v>28561431</v>
+      </c>
+      <c r="I22" s="17">
         <v>39399164</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>19808653</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>30780113</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>1971357</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>6234420</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,92 +1274,167 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>23953006</v>
+      </c>
+      <c r="E24" s="17">
+        <v>35882977</v>
+      </c>
+      <c r="F24" s="17">
+        <v>39516717</v>
+      </c>
+      <c r="G24" s="17">
+        <v>37642612</v>
+      </c>
+      <c r="H24" s="17">
+        <v>28561431</v>
+      </c>
+      <c r="I24" s="17">
         <v>39399164</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>19808653</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>30780113</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>1971357</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>6234420</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>479</v>
+      </c>
+      <c r="E25" s="13">
+        <v>718</v>
+      </c>
+      <c r="F25" s="13">
+        <v>329</v>
+      </c>
+      <c r="G25" s="13">
+        <v>314</v>
+      </c>
+      <c r="H25" s="13">
+        <v>238</v>
+      </c>
+      <c r="I25" s="13">
         <v>328</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>165</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>257</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>10</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>120000000</v>
+        <v>50000000</v>
       </c>
       <c r="E26" s="11">
-        <v>120000000</v>
+        <v>50000000</v>
       </c>
       <c r="F26" s="11">
         <v>120000000</v>
       </c>
       <c r="G26" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="I26" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>120000000</v>
+      </c>
+      <c r="L26" s="11">
         <v>190000000</v>
       </c>
-      <c r="H26" s="11">
+      <c r="M26" s="11">
         <v>190000000</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>126</v>
+      </c>
+      <c r="E27" s="13">
+        <v>189</v>
+      </c>
+      <c r="F27" s="13">
+        <v>208</v>
+      </c>
+      <c r="G27" s="13">
+        <v>198</v>
+      </c>
+      <c r="H27" s="13">
+        <v>150</v>
+      </c>
+      <c r="I27" s="13">
         <v>207</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>104</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>162</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>10</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/fakhouz/income/quarterly/rial.xlsx
+++ b/database/industries/folad/fakhouz/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C283EBC0-11AB-4453-ABA3-51F1C1A580AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D3E34-D761-4A52-B0EF-B4E0BC5D7A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -630,7 +630,7 @@
     <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,7 +822,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -858,7 +858,7 @@
         <v>129010944</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -894,7 +894,7 @@
         <v>-114089932</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -930,7 +930,7 @@
         <v>14921012</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -966,7 +966,7 @@
         <v>-2653355</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>-5774785</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>6492872</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>-698662</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>3456027</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>9250237</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>-3015817</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>6234420</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>6234420</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>190000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/folad/fakhouz/income/quarterly/rial.xlsx
+++ b/database/industries/folad/fakhouz/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D3E34-D761-4A52-B0EF-B4E0BC5D7A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266CD382-46FB-4B64-ADEF-4D5F4DEEFC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>

--- a/database/industries/folad/fakhouz/income/quarterly/rial.xlsx
+++ b/database/industries/folad/fakhouz/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266CD382-46FB-4B64-ADEF-4D5F4DEEFC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9B8BCD-D0BE-459A-82F3-DC11A8BB8738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="708" yWindow="708" windowWidth="18204" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-10-07 (5)</t>
-  </si>
-  <si>
     <t>1400-10-30 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-04-18 (10)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-04-18 (3)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -623,11 +623,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
@@ -828,34 +829,34 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>64025242</v>
+        <v>96678141</v>
       </c>
       <c r="E11" s="13">
-        <v>96678141</v>
+        <v>97668485</v>
       </c>
       <c r="F11" s="13">
-        <v>97668485</v>
+        <v>109067824</v>
       </c>
       <c r="G11" s="13">
-        <v>109067824</v>
+        <v>92815989</v>
       </c>
       <c r="H11" s="13">
-        <v>92815989</v>
+        <v>128706715</v>
       </c>
       <c r="I11" s="13">
-        <v>128706715</v>
+        <v>171575539</v>
       </c>
       <c r="J11" s="13">
-        <v>171575537</v>
+        <v>127641205</v>
       </c>
       <c r="K11" s="13">
-        <v>127641205</v>
+        <v>110214098</v>
       </c>
       <c r="L11" s="13">
-        <v>110214098</v>
+        <v>129010944</v>
       </c>
       <c r="M11" s="13">
-        <v>129010944</v>
+        <v>163770652</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -864,34 +865,34 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-39128192</v>
+        <v>-54460020</v>
       </c>
       <c r="E12" s="11">
-        <v>-54460020</v>
+        <v>-56974255</v>
       </c>
       <c r="F12" s="11">
-        <v>-56974255</v>
+        <v>-59856233</v>
       </c>
       <c r="G12" s="11">
-        <v>-59856233</v>
+        <v>-58278229</v>
       </c>
       <c r="H12" s="11">
-        <v>-58278229</v>
+        <v>-80873061</v>
       </c>
       <c r="I12" s="11">
-        <v>-80873061</v>
+        <v>-138742593</v>
       </c>
       <c r="J12" s="11">
-        <v>-138742593</v>
+        <v>-88568840</v>
       </c>
       <c r="K12" s="11">
-        <v>-88568840</v>
+        <v>-98941829</v>
       </c>
       <c r="L12" s="11">
-        <v>-98941829</v>
+        <v>-114089932</v>
       </c>
       <c r="M12" s="11">
-        <v>-114089932</v>
+        <v>-138573390</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -900,34 +901,34 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>24897050</v>
+        <v>42218121</v>
       </c>
       <c r="E13" s="15">
-        <v>42218121</v>
+        <v>40694230</v>
       </c>
       <c r="F13" s="15">
-        <v>40694230</v>
+        <v>49211591</v>
       </c>
       <c r="G13" s="15">
-        <v>49211591</v>
+        <v>34537760</v>
       </c>
       <c r="H13" s="15">
-        <v>34537760</v>
+        <v>47833654</v>
       </c>
       <c r="I13" s="15">
-        <v>47833654</v>
+        <v>32832946</v>
       </c>
       <c r="J13" s="15">
-        <v>32832944</v>
+        <v>39072365</v>
       </c>
       <c r="K13" s="15">
-        <v>39072365</v>
+        <v>11272269</v>
       </c>
       <c r="L13" s="15">
-        <v>11272269</v>
+        <v>14921012</v>
       </c>
       <c r="M13" s="15">
-        <v>14921012</v>
+        <v>25197262</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -936,34 +937,34 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-2337473</v>
+        <v>-3538478</v>
       </c>
       <c r="E14" s="11">
-        <v>-3538478</v>
+        <v>-4419076</v>
       </c>
       <c r="F14" s="11">
-        <v>-4419076</v>
+        <v>-4810389</v>
       </c>
       <c r="G14" s="11">
-        <v>-4810389</v>
+        <v>-4545421</v>
       </c>
       <c r="H14" s="11">
-        <v>-4545421</v>
+        <v>-4994428</v>
       </c>
       <c r="I14" s="11">
-        <v>-4994428</v>
+        <v>-7166680</v>
       </c>
       <c r="J14" s="11">
-        <v>-7166680</v>
+        <v>-8887672</v>
       </c>
       <c r="K14" s="11">
-        <v>-8887672</v>
+        <v>-11347356</v>
       </c>
       <c r="L14" s="11">
-        <v>-11347356</v>
+        <v>-2653355</v>
       </c>
       <c r="M14" s="11">
-        <v>-2653355</v>
+        <v>-10037890</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1008,34 +1009,34 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>2057010</v>
+        <v>-284705</v>
       </c>
       <c r="E16" s="11">
-        <v>-284705</v>
+        <v>1057319</v>
       </c>
       <c r="F16" s="11">
-        <v>1057319</v>
+        <v>-3021487</v>
       </c>
       <c r="G16" s="11">
-        <v>-3021487</v>
+        <v>-684442</v>
       </c>
       <c r="H16" s="11">
-        <v>-684442</v>
+        <v>-675042</v>
       </c>
       <c r="I16" s="11">
-        <v>-675042</v>
+        <v>-4175861</v>
       </c>
       <c r="J16" s="11">
-        <v>-4175861</v>
+        <v>2578330</v>
       </c>
       <c r="K16" s="11">
-        <v>2578330</v>
+        <v>-1724942</v>
       </c>
       <c r="L16" s="11">
-        <v>-1724942</v>
+        <v>-5774785</v>
       </c>
       <c r="M16" s="11">
-        <v>-5774785</v>
+        <v>2764335</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -1044,34 +1045,34 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>24616587</v>
+        <v>38394938</v>
       </c>
       <c r="E17" s="15">
-        <v>38394938</v>
+        <v>37332473</v>
       </c>
       <c r="F17" s="15">
-        <v>37332473</v>
+        <v>41379715</v>
       </c>
       <c r="G17" s="15">
-        <v>41379715</v>
+        <v>29307897</v>
       </c>
       <c r="H17" s="15">
-        <v>29307897</v>
+        <v>42164184</v>
       </c>
       <c r="I17" s="15">
-        <v>42164184</v>
+        <v>21490405</v>
       </c>
       <c r="J17" s="15">
-        <v>21490403</v>
+        <v>32763023</v>
       </c>
       <c r="K17" s="15">
-        <v>32763023</v>
+        <v>-1800029</v>
       </c>
       <c r="L17" s="15">
-        <v>-1800029</v>
+        <v>6492872</v>
       </c>
       <c r="M17" s="15">
-        <v>6492872</v>
+        <v>17923707</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1080,34 +1081,34 @@
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-594709</v>
+        <v>-625680</v>
       </c>
       <c r="E18" s="11">
-        <v>-625680</v>
+        <v>-1242005</v>
       </c>
       <c r="F18" s="11">
-        <v>-1242005</v>
+        <v>-889650</v>
       </c>
       <c r="G18" s="11">
-        <v>-889650</v>
+        <v>-878025</v>
       </c>
       <c r="H18" s="11">
-        <v>-878025</v>
+        <v>-908660</v>
       </c>
       <c r="I18" s="11">
-        <v>-908660</v>
+        <v>-1400622</v>
       </c>
       <c r="J18" s="11">
-        <v>-1400622</v>
+        <v>-1761919</v>
       </c>
       <c r="K18" s="11">
-        <v>-1761919</v>
+        <v>486853</v>
       </c>
       <c r="L18" s="11">
-        <v>486853</v>
+        <v>-698662</v>
       </c>
       <c r="M18" s="11">
-        <v>-698662</v>
+        <v>-2080127</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -1116,34 +1117,34 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>1776430</v>
+        <v>234109</v>
       </c>
       <c r="E19" s="13">
-        <v>234109</v>
+        <v>2219900</v>
       </c>
       <c r="F19" s="13">
-        <v>2219900</v>
+        <v>-885454</v>
       </c>
       <c r="G19" s="13">
-        <v>-885454</v>
+        <v>2261670</v>
       </c>
       <c r="H19" s="13">
-        <v>2261670</v>
+        <v>1486021</v>
       </c>
       <c r="I19" s="13">
-        <v>1486021</v>
+        <v>1353285</v>
       </c>
       <c r="J19" s="13">
-        <v>1353285</v>
+        <v>1855391</v>
       </c>
       <c r="K19" s="13">
-        <v>1855391</v>
+        <v>4545900</v>
       </c>
       <c r="L19" s="13">
-        <v>4545900</v>
+        <v>3456027</v>
       </c>
       <c r="M19" s="13">
-        <v>3456027</v>
+        <v>7201345</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -1152,34 +1153,34 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>25798308</v>
+        <v>38003367</v>
       </c>
       <c r="E20" s="17">
-        <v>38003367</v>
+        <v>38310368</v>
       </c>
       <c r="F20" s="17">
-        <v>38310368</v>
+        <v>39604611</v>
       </c>
       <c r="G20" s="17">
-        <v>39604611</v>
+        <v>30691542</v>
       </c>
       <c r="H20" s="17">
-        <v>30691542</v>
+        <v>42741545</v>
       </c>
       <c r="I20" s="17">
-        <v>42741545</v>
+        <v>21443068</v>
       </c>
       <c r="J20" s="17">
-        <v>21443066</v>
+        <v>32856495</v>
       </c>
       <c r="K20" s="17">
-        <v>32856495</v>
+        <v>3232724</v>
       </c>
       <c r="L20" s="17">
-        <v>3232724</v>
+        <v>9250237</v>
       </c>
       <c r="M20" s="17">
-        <v>9250237</v>
+        <v>23044925</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1188,34 +1189,34 @@
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-1845302</v>
+        <v>-2120390</v>
       </c>
       <c r="E21" s="13">
-        <v>-2120390</v>
+        <v>1206349</v>
       </c>
       <c r="F21" s="13">
-        <v>1206349</v>
+        <v>-1961999</v>
       </c>
       <c r="G21" s="13">
-        <v>-1961999</v>
+        <v>-2130111</v>
       </c>
       <c r="H21" s="13">
-        <v>-2130111</v>
+        <v>-3342381</v>
       </c>
       <c r="I21" s="13">
-        <v>-3342381</v>
+        <v>-1634414</v>
       </c>
       <c r="J21" s="13">
-        <v>-1634413</v>
+        <v>-2076382</v>
       </c>
       <c r="K21" s="13">
-        <v>-2076382</v>
+        <v>-1261367</v>
       </c>
       <c r="L21" s="13">
-        <v>-1261367</v>
+        <v>-3015817</v>
       </c>
       <c r="M21" s="13">
-        <v>-3015817</v>
+        <v>4740970</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -1224,34 +1225,34 @@
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>23953006</v>
+        <v>35882977</v>
       </c>
       <c r="E22" s="17">
-        <v>35882977</v>
+        <v>39516717</v>
       </c>
       <c r="F22" s="17">
-        <v>39516717</v>
+        <v>37642612</v>
       </c>
       <c r="G22" s="17">
-        <v>37642612</v>
+        <v>28561431</v>
       </c>
       <c r="H22" s="17">
-        <v>28561431</v>
+        <v>39399164</v>
       </c>
       <c r="I22" s="17">
-        <v>39399164</v>
+        <v>19808654</v>
       </c>
       <c r="J22" s="17">
-        <v>19808653</v>
+        <v>30780113</v>
       </c>
       <c r="K22" s="17">
-        <v>30780113</v>
+        <v>1971357</v>
       </c>
       <c r="L22" s="17">
-        <v>1971357</v>
+        <v>6234420</v>
       </c>
       <c r="M22" s="17">
-        <v>6234420</v>
+        <v>27785895</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -1296,34 +1297,34 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>23953006</v>
+        <v>35882977</v>
       </c>
       <c r="E24" s="17">
-        <v>35882977</v>
+        <v>39516717</v>
       </c>
       <c r="F24" s="17">
-        <v>39516717</v>
+        <v>37642612</v>
       </c>
       <c r="G24" s="17">
-        <v>37642612</v>
+        <v>28561431</v>
       </c>
       <c r="H24" s="17">
-        <v>28561431</v>
+        <v>39399164</v>
       </c>
       <c r="I24" s="17">
-        <v>39399164</v>
+        <v>19808654</v>
       </c>
       <c r="J24" s="17">
-        <v>19808653</v>
+        <v>30780113</v>
       </c>
       <c r="K24" s="17">
-        <v>30780113</v>
+        <v>1971357</v>
       </c>
       <c r="L24" s="17">
-        <v>1971357</v>
+        <v>6234420</v>
       </c>
       <c r="M24" s="17">
-        <v>6234420</v>
+        <v>27785895</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -1332,34 +1333,34 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>479</v>
+        <v>718</v>
       </c>
       <c r="E25" s="13">
-        <v>718</v>
+        <v>329</v>
       </c>
       <c r="F25" s="13">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="G25" s="13">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="H25" s="13">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I25" s="13">
-        <v>328</v>
+        <v>165</v>
       </c>
       <c r="J25" s="13">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="K25" s="13">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L25" s="13">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M25" s="13">
-        <v>33</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -1371,7 +1372,7 @@
         <v>50000000</v>
       </c>
       <c r="E26" s="11">
-        <v>50000000</v>
+        <v>120000000</v>
       </c>
       <c r="F26" s="11">
         <v>120000000</v>
@@ -1389,7 +1390,7 @@
         <v>120000000</v>
       </c>
       <c r="K26" s="11">
-        <v>120000000</v>
+        <v>190000000</v>
       </c>
       <c r="L26" s="11">
         <v>190000000</v>
@@ -1404,34 +1405,34 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="E27" s="13">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F27" s="13">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G27" s="13">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="H27" s="13">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="I27" s="13">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="J27" s="13">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="K27" s="13">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="L27" s="13">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M27" s="13">
-        <v>33</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
